--- a/Layout.xlsx
+++ b/Layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33782\Desktop\Mémoire F1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49722CC2-596A-4832-9B78-47C7CA826743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF973C7-0831-4BC7-ACA6-F2E42DEEAB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="10" windowWidth="14400" windowHeight="7270" xr2:uid="{F50E5408-0ADC-4495-8A5E-A15D926DEE27}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F50E5408-0ADC-4495-8A5E-A15D926DEE27}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -101,83 +101,91 @@
     <t>Al Daayen</t>
   </si>
   <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Abu Dhabi.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Australian.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Bahrain.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Spain.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Monaco.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/British.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Hungarian.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Belgian.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Italian.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Singapore.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Qatar.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/São Paulo.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Japanese.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Las Vegas.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Mexico city.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Canadian.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Austin.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Austrian.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Azerbaijan.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Saudi Arabian.png</t>
-  </si>
-  <si>
-    <t>C:/Users/33782/Desktop/Mémoire F1/circuit/png circuit/Miami.png</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
     <t>Montmeló</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Abu%20Dhabi.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Australian.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Bahrain.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Spain.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Monaco.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/British.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Hungarian.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Belgian.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Italian.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Singapore.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Qatar.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Japanese.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Canadian.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Austin.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Austrian.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Azerbaijan.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Miami.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Mexico%20City.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Las%20Vegas.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/São%20Paulo.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/Mohbadi/AppF1/main/circuit/png%20circuit/Saudi%20Arabian.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -200,13 +208,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -541,15 +552,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A05AD67-2CC0-45B6-AD8F-AA786C94B75F}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -559,171 +570,194 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>29</v>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>33</v>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>34</v>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>35</v>
+      <c r="B16" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>36</v>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>38</v>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>39</v>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7E95A2FD-72D9-4DFE-8736-DE437FD69F7E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A062B5EC-5454-4F5F-B29E-DA3A8B5EEF9E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{3088D605-C96D-4532-A19A-72C31A00252F}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D02A8377-1C8B-4074-87B3-48CC0045FE0B}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{FC510AF7-7FA5-4638-B360-3221E20DA85C}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{F2E09C16-574C-4B9E-A6EE-A101626E7B89}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{F4C2FE6D-D9EF-455E-BEE8-D288FDED0D7C}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{0D101018-F92A-4475-B789-D8580B85CD34}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{23361DFB-AB1F-4BEE-A3B1-4A9D1D2E3892}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{9C1434E1-61D7-4FBA-85CB-CE16100A124C}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{B32A077A-1A77-44FC-B708-7AF3D0184F0D}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{2FF283FF-1F98-457D-9108-C1CC85CCCAC3}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{E5958289-E4EC-4748-9832-248700195BE4}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{81B24733-C91F-4D49-B1F6-513E44253C48}"/>
+    <hyperlink ref="B19" r:id="rId15" xr:uid="{3A4A373F-6911-4969-8859-C39DD9F084FD}"/>
+    <hyperlink ref="B20" r:id="rId16" xr:uid="{FEF9AFE1-1D30-4FF8-A681-47F90DEC0B27}"/>
+    <hyperlink ref="B22" r:id="rId17" xr:uid="{45CD88A0-4B3F-4138-BE83-2F94155E1EB4}"/>
+    <hyperlink ref="B16" r:id="rId18" xr:uid="{EE5EFBC0-1E11-4C0E-BA0B-003238A58EF5}"/>
+    <hyperlink ref="B15" r:id="rId19" xr:uid="{C448DCE2-B113-47FF-8201-8C1796196B6B}"/>
+    <hyperlink ref="B13" r:id="rId20" xr:uid="{1B0AD6D6-4EE4-4B4C-8333-F9599A0CC9C0}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{2B368110-3471-44B6-AE95-4893FD49692B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>